--- a/Data_science_outputs_highlands/Graphs/Third/3/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/3/Montlhy_consumption_2.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10481.33163398335</v>
+        <v>5611.412016533345</v>
       </c>
       <c r="C2" t="n">
-        <v>1016.91221996667</v>
+        <v>3843.470464600011</v>
       </c>
       <c r="D2" t="n">
-        <v>4569.78187205</v>
+        <v>416.1734812833333</v>
       </c>
       <c r="E2" t="n">
-        <v>1381.5483666</v>
+        <v>1229.176641683333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9794.179337950012</v>
+        <v>5260.193277366677</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4296.9158493</v>
+        <v>395.8955072333333</v>
       </c>
       <c r="E3" t="n">
-        <v>1288.572523166667</v>
+        <v>1130.57091175</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10497.96351056668</v>
+        <v>5614.417726066677</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4570.063841583334</v>
+        <v>427.0508881666667</v>
       </c>
       <c r="E4" t="n">
-        <v>1376.7807212</v>
+        <v>1203.696249416667</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10148.44228330001</v>
+        <v>5429.478481483344</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4427.9938584</v>
+        <v>429.7632737333333</v>
       </c>
       <c r="E5" t="n">
-        <v>1337.76009385</v>
+        <v>1175.946313183333</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10478.93145815001</v>
+        <v>5620.513279750011</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4567.017512266667</v>
+        <v>429.5515579666667</v>
       </c>
       <c r="E6" t="n">
-        <v>1367.522908866667</v>
+        <v>1207.388989333333</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10140.12930323335</v>
+        <v>5438.059472833344</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4447.212617283333</v>
+        <v>406.0871726666667</v>
       </c>
       <c r="E7" t="n">
-        <v>1340.991212666667</v>
+        <v>1175.34971485</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10494.13216185001</v>
+        <v>5637.328297400011</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4578.70722</v>
+        <v>434.20990855</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.20929395</v>
+        <v>1217.94674925</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10485.08250290001</v>
+        <v>5614.974217983346</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4580.716582766667</v>
+        <v>440.5185823</v>
       </c>
       <c r="E9" t="n">
-        <v>1375.007581683333</v>
+        <v>1211.601406566667</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10132.09584441668</v>
+        <v>5413.292563083344</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4431.959862416667</v>
+        <v>414.5638773833333</v>
       </c>
       <c r="E10" t="n">
-        <v>1321.568446416667</v>
+        <v>1175.450462833333</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10472.10480060001</v>
+        <v>5627.592650183345</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4575.574218566667</v>
+        <v>427.6432115333334</v>
       </c>
       <c r="E11" t="n">
-        <v>1391.61962175</v>
+        <v>1208.0971162</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10112.00599196668</v>
+        <v>5457.046260950011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4443.598580016666</v>
+        <v>409.1778432333334</v>
       </c>
       <c r="E12" t="n">
-        <v>1343.722507583333</v>
+        <v>1183.49865075</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10143.03975250001</v>
+        <v>5435.388454366678</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4430.711575583333</v>
+        <v>428.4852676666666</v>
       </c>
       <c r="E13" t="n">
-        <v>1331.969743</v>
+        <v>1180.02253225</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
